--- a/Candidate Details To Be Filled.xlsx
+++ b/Candidate Details To Be Filled.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46465\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\7ZN5MRYH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malayaranjan.behera\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA5C3FC4-09DA-4F75-BE79-14EEAC2264FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Subject</t>
   </si>
@@ -99,13 +100,43 @@
   </si>
   <si>
     <t>College</t>
+  </si>
+  <si>
+    <t>Malaya Ranjan Behera</t>
+  </si>
+  <si>
+    <t>mrbehera23@gmail.com</t>
+  </si>
+  <si>
+    <t>23-08-1991</t>
+  </si>
+  <si>
+    <t>CEUPB2471J</t>
+  </si>
+  <si>
+    <t>Aristo Apartment room 304,Pune</t>
+  </si>
+  <si>
+    <t>B-tech</t>
+  </si>
+  <si>
+    <t>VSSUT Burla</t>
+  </si>
+  <si>
+    <t>Infosys Limited</t>
+  </si>
+  <si>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>90(Negotiable)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +156,14 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -266,12 +305,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -284,8 +323,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -597,11 +640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,235 +654,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2">
+        <v>7978795966</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="10">
+        <v>40795</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="11">
+        <v>42009</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2">
+        <v>7.62</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="2">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="2">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="11">
+        <v>42554</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="2">
+        <v>570000</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="2">
+        <v>1300000</v>
+      </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{89619769-9EA6-4B6D-8B42-12687F1261AE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>